--- a/Files/Vaccine_October 6, 2003.xlsx
+++ b/Files/Vaccine_October 6, 2003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="137">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP</t>
+    <t xml:space="preserve">DTaP/</t>
   </si>
   <si>
     <t xml:space="preserve">Tripedia</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vial 10 x 1 dose vial </t>
+    <t xml:space="preserve">10 x 1 dose vial </t>
   </si>
   <si>
     <t xml:space="preserve">$11.75</t>
@@ -77,31 +77,31 @@
     <t xml:space="preserve">Infanrix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vial 5 x 1 dose TIP-LOK syringe </t>
-  </si>
-  <si>
     <t xml:space="preserve">$19.65</t>
   </si>
   <si>
     <t xml:space="preserve">GlaxoSmithKline</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-HepB-IPV*</t>
+    <t xml:space="preserve">5 x 1 dose TIP-LOK syringe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTaP-Hep B-IPV*</t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vial 5 x 1 dose syringe </t>
-  </si>
-  <si>
     <t xml:space="preserve">$32.75</t>
   </si>
   <si>
     <t xml:space="preserve">$69.41</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP </t>
+    <t xml:space="preserve">5 x 1 dose syringe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTaP-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">TriHIBit</t>
@@ -138,7 +138,7 @@
     <t xml:space="preserve">Aventis Pasteur</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B^</t>
+    <t xml:space="preserve">Hepatitis B-Hib</t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -187,22 +187,25 @@
     <t xml:space="preserve">25 x 1 T-L Syr No Needle</t>
   </si>
   <si>
-    <t xml:space="preserve">25 x 1 T-L Syr 1&amp;Prime; 25g Needle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HepatitisA Adult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10
-x 1 dose vials
-1 dose vial</t>
+    <t xml:space="preserve">25 x 1 T-L Syr 1" 25g Needle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hepatitis A Adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 x 1 dose vials </t>
   </si>
   <si>
     <t xml:space="preserve">$17.75</t>
   </si>
   <si>
-    <t xml:space="preserve">$59.24
-$62.76</t>
+    <t xml:space="preserve">$59.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 dose vial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$62.76</t>
   </si>
   <si>
     <t xml:space="preserve">1 dose TIP-LOK</t>
@@ -220,15 +223,15 @@
     <t xml:space="preserve">Twinrix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vial 5 x 1 dose Syr, No Needles </t>
-  </si>
-  <si>
     <t xml:space="preserve">$36.16</t>
   </si>
   <si>
     <t xml:space="preserve">$78.41</t>
   </si>
   <si>
+    <t xml:space="preserve">5 x 1 dose Syr, No Needles </t>
+  </si>
+  <si>
     <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only</t>
   </si>
   <si>
@@ -238,21 +241,30 @@
     <t xml:space="preserve">$78.67</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis BPediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
   </si>
   <si>
-    <t xml:space="preserve">1 dose vial 10 x 1 dose vials 5 x1 T-L Syr No Needle 251 T-L Syr No Needle 25 x1 T-L Syr 5/8&amp;Prime; Needle 25 x1 T-L Syr 1&amp;Prime; 25g Needle </t>
-  </si>
-  <si>
     <t xml:space="preserve">$9.00</t>
   </si>
   <si>
     <t xml:space="preserve">$21.37</t>
   </si>
   <si>
+    <t xml:space="preserve">5 x1 T-L Syr No Needle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 x 1T-L Syr No Needle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 x1 T-L Syr 5/8" Needle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 x1 T-L Syr 1" 25g Needle </t>
+  </si>
+  <si>
     <t xml:space="preserve">RECOMBIVAX HB</t>
   </si>
   <si>
@@ -328,13 +340,13 @@
     <t xml:space="preserve">$21.78</t>
   </si>
   <si>
-    <t xml:space="preserve">InfluenzaInfluenza Preservative-free (ages 6 to 35 months)</t>
+    <t xml:space="preserve">Influenza Influenza Preservative-free (ages 6 to 35 months)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
   </si>
   <si>
-    <t xml:space="preserve">10 dose vials 10 x 1 Syringes No Needle </t>
+    <t xml:space="preserve">10 dose vials </t>
   </si>
   <si>
     <t xml:space="preserve">$6.60</t>
@@ -346,10 +358,13 @@
     <t xml:space="preserve">Fluzone - Preservative Free</t>
   </si>
   <si>
+    <t xml:space="preserve">10 x 1 Syringes No Needle </t>
+  </si>
+  <si>
     <t xml:space="preserve">$12.00</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR</t>
+    <t xml:space="preserve">MMR/</t>
   </si>
   <si>
     <t xml:space="preserve">MMRII</t>
@@ -361,7 +376,7 @@
     <t xml:space="preserve">$34.73</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal7-valent(Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 7-valent (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar</t>
@@ -628,19 +643,19 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1">
         <v>38077</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
@@ -657,19 +672,19 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1">
         <v>38077</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -686,19 +701,19 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
       <c r="G6" s="1">
         <v>38077</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -715,19 +730,19 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" s="1">
         <v>38077</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -872,7 +887,7 @@
         <v>38077</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -901,7 +916,7 @@
         <v>38077</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -930,7 +945,7 @@
         <v>38077</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -959,7 +974,7 @@
         <v>38077</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -988,7 +1003,7 @@
         <v>38077</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
@@ -1028,7 +1043,7 @@
         <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1046,7 +1061,7 @@
         <v>38168</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
@@ -1069,13 +1084,13 @@
         <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G19" s="1">
         <v>38168</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -1083,28 +1098,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
         <v>65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" t="s">
-        <v>69</v>
       </c>
       <c r="G20" s="1">
         <v>38168</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -1112,28 +1127,28 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" s="1">
         <v>38168</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
@@ -1141,10 +1156,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1153,16 +1168,16 @@
         <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G22" s="1">
-        <v>38077</v>
+        <v>38168</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -1170,28 +1185,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
         <v>73</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
         <v>74</v>
       </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" t="s">
-        <v>77</v>
-      </c>
       <c r="G23" s="1">
         <v>38077</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -1199,28 +1214,28 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" s="1">
         <v>38077</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s">
         <v>11</v>
@@ -1228,28 +1243,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G25" s="1">
         <v>38077</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I25" t="s">
         <v>11</v>
@@ -1257,28 +1272,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G26" s="1">
         <v>38077</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -1286,28 +1301,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" s="1">
         <v>38077</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -1315,28 +1330,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" s="1">
         <v>38077</v>
       </c>
       <c r="H28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -1344,28 +1359,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
         <v>78</v>
       </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" t="s">
-        <v>79</v>
-      </c>
       <c r="G29" s="1">
         <v>38077</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -1373,22 +1388,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G30" s="1">
         <v>38077</v>
@@ -1402,25 +1417,25 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G31" s="1">
-        <v>38168</v>
+        <v>38077</v>
       </c>
       <c r="H31" t="s">
         <v>46</v>
@@ -1431,10 +1446,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -1443,10 +1458,10 @@
         <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G32" s="1">
         <v>38168</v>
@@ -1460,19 +1475,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
         <v>88</v>
@@ -1481,7 +1496,7 @@
         <v>38168</v>
       </c>
       <c r="H33" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
         <v>11</v>
@@ -1489,28 +1504,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G34" s="1">
         <v>38168</v>
       </c>
       <c r="H34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
         <v>11</v>
@@ -1518,28 +1533,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
         <v>87</v>
       </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" t="s">
-        <v>82</v>
-      </c>
       <c r="F35" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G35" s="1">
         <v>38168</v>
       </c>
       <c r="H35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s">
         <v>11</v>
@@ -1547,7 +1562,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
         <v>92</v>
@@ -1556,19 +1571,19 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" t="s">
         <v>93</v>
       </c>
-      <c r="F36" t="s">
-        <v>94</v>
-      </c>
       <c r="G36" s="1">
-        <v>38077</v>
+        <v>38168</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I36" t="s">
         <v>11</v>
@@ -1576,28 +1591,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G37" s="1">
         <v>38077</v>
       </c>
       <c r="H37" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
         <v>11</v>
@@ -1605,7 +1620,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
         <v>100</v>
@@ -1614,19 +1629,19 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G38" s="1">
         <v>38077</v>
       </c>
       <c r="H38" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="I38" t="s">
         <v>11</v>
@@ -1634,16 +1649,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E39" t="s">
         <v>106</v>
@@ -1652,7 +1667,7 @@
         <v>107</v>
       </c>
       <c r="G39" s="1">
-        <v>38017</v>
+        <v>38077</v>
       </c>
       <c r="H39" t="s">
         <v>40</v>
@@ -1663,22 +1678,22 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="F40" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G40" s="1">
         <v>38017</v>
@@ -1692,28 +1707,28 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G41" s="1">
-        <v>38077</v>
+        <v>38017</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I41" t="s">
         <v>11</v>
@@ -1721,28 +1736,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G42" s="1">
         <v>38077</v>
       </c>
       <c r="H42" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
         <v>11</v>
@@ -1750,28 +1765,28 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G43" s="1">
-        <v>38168</v>
+        <v>38077</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="I43" t="s">
         <v>11</v>
@@ -1779,25 +1794,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F44" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G44" s="1">
-        <v>38077</v>
+        <v>38168</v>
       </c>
       <c r="H44" t="s">
         <v>46</v>
@@ -1808,22 +1823,22 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G45" s="1">
         <v>38077</v>
@@ -1832,6 +1847,35 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="1">
+        <v>38077</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Files/Vaccine_October 6, 2003.xlsx
+++ b/Files/Vaccine_October 6, 2003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="136">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">5 x 1 dose TIP-LOK syringe </t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV*</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV</t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -125,8 +125,7 @@
     <t xml:space="preserve">IPOL</t>
   </si>
   <si>
-    <t xml:space="preserve">10
-dose vial</t>
+    <t xml:space="preserve">10 dose vial</t>
   </si>
   <si>
     <t xml:space="preserve">$9.96</t>
@@ -144,8 +143,7 @@
     <t xml:space="preserve">COMVAX</t>
   </si>
   <si>
-    <t xml:space="preserve">10
-x 1 dose vials</t>
+    <t xml:space="preserve">10 x 1 dose vials</t>
   </si>
   <si>
     <t xml:space="preserve">$21.83</t>
@@ -272,9 +270,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hepatitis B 2 dose Adolescent (11-15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 x 1 dose vials</t>
   </si>
   <si>
     <t xml:space="preserve">$24.25</t>
@@ -1426,13 +1421,13 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
         <v>86</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>87</v>
-      </c>
-      <c r="F31" t="s">
-        <v>88</v>
       </c>
       <c r="G31" s="1">
         <v>38077</v>
@@ -1446,7 +1441,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
         <v>83</v>
@@ -1455,13 +1450,13 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G32" s="1">
         <v>38168</v>
@@ -1475,7 +1470,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
         <v>83</v>
@@ -1484,13 +1479,13 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="1">
         <v>38168</v>
@@ -1504,22 +1499,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" t="s">
         <v>89</v>
       </c>
-      <c r="B34" t="s">
+      <c r="F34" t="s">
         <v>92</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" t="s">
-        <v>93</v>
       </c>
       <c r="G34" s="1">
         <v>38168</v>
@@ -1533,22 +1528,22 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" t="s">
         <v>92</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" t="s">
-        <v>93</v>
       </c>
       <c r="G35" s="1">
         <v>38168</v>
@@ -1562,22 +1557,22 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" t="s">
         <v>92</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" t="s">
-        <v>93</v>
       </c>
       <c r="G36" s="1">
         <v>38168</v>
@@ -1591,22 +1586,22 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
         <v>96</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" t="s">
         <v>97</v>
       </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>98</v>
-      </c>
-      <c r="F37" t="s">
-        <v>99</v>
       </c>
       <c r="G37" s="1">
         <v>38077</v>
@@ -1620,28 +1615,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
         <v>100</v>
       </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>101</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>102</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" s="1">
+        <v>38077</v>
+      </c>
+      <c r="H38" t="s">
         <v>103</v>
-      </c>
-      <c r="G38" s="1">
-        <v>38077</v>
-      </c>
-      <c r="H38" t="s">
-        <v>104</v>
       </c>
       <c r="I38" t="s">
         <v>11</v>
@@ -1649,22 +1644,22 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
         <v>105</v>
       </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>106</v>
-      </c>
-      <c r="F39" t="s">
-        <v>107</v>
       </c>
       <c r="G39" s="1">
         <v>38077</v>
@@ -1678,22 +1673,22 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
         <v>108</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
         <v>109</v>
       </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>110</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>111</v>
-      </c>
-      <c r="F40" t="s">
-        <v>112</v>
       </c>
       <c r="G40" s="1">
         <v>38017</v>
@@ -1707,22 +1702,22 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
         <v>113</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s">
-        <v>114</v>
       </c>
       <c r="E41" t="s">
         <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G41" s="1">
         <v>38017</v>
@@ -1736,22 +1731,22 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" t="s">
         <v>116</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" t="s">
         <v>117</v>
       </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>118</v>
-      </c>
-      <c r="F42" t="s">
-        <v>119</v>
       </c>
       <c r="G42" s="1">
         <v>38077</v>
@@ -1765,28 +1760,28 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
         <v>120</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
         <v>121</v>
       </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>122</v>
       </c>
-      <c r="F43" t="s">
-        <v>123</v>
-      </c>
       <c r="G43" s="1">
         <v>38077</v>
       </c>
       <c r="H43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I43" t="s">
         <v>11</v>
@@ -1794,22 +1789,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" t="s">
         <v>124</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
         <v>125</v>
       </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>126</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>127</v>
-      </c>
-      <c r="F44" t="s">
-        <v>128</v>
       </c>
       <c r="G44" s="1">
         <v>38168</v>
@@ -1823,22 +1818,22 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s">
         <v>129</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" t="s">
         <v>130</v>
       </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>131</v>
-      </c>
-      <c r="F45" t="s">
-        <v>132</v>
       </c>
       <c r="G45" s="1">
         <v>38077</v>
@@ -1852,10 +1847,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" t="s">
         <v>133</v>
-      </c>
-      <c r="B46" t="s">
-        <v>134</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
@@ -1864,10 +1859,10 @@
         <v>49</v>
       </c>
       <c r="E46" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" t="s">
         <v>135</v>
-      </c>
-      <c r="F46" t="s">
-        <v>136</v>
       </c>
       <c r="G46" s="1">
         <v>38077</v>
